--- a/employees2.xlsx
+++ b/employees2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91df5e399c5dd619/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91df5e399c5dd619/Desktop/PAYSLIP GENERATOR PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4BAD1A0-9745-459D-8B4B-B08E4CC8AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A8FF68-8043-490C-9CCA-7C2B5A9726B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8976" xr2:uid="{549C43A5-489D-41A0-B0FD-1046CD511BC1}"/>
+    <workbookView xWindow="2568" yWindow="1260" windowWidth="12300" windowHeight="6324" xr2:uid="{549C43A5-489D-41A0-B0FD-1046CD511BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>EMPLOYEE ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Lloyd Donel</t>
   </si>
   <si>
-    <t>lloyddonel44@gmail.com</t>
-  </si>
-  <si>
     <t>Mechanics</t>
   </si>
   <si>
@@ -106,6 +103,57 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>wisdombalicholo@gmail.com</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>Nicolus</t>
+  </si>
+  <si>
+    <t>nicolaskudzai696@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kaduwashaine20@gmail.com</t>
+  </si>
+  <si>
+    <t>nashegraphix@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> toilet cleaner</t>
+  </si>
+  <si>
+    <t>security officer</t>
+  </si>
+  <si>
+    <t>gateman</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>kudzie</t>
+  </si>
+  <si>
+    <t>lloyddonnel44@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -474,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC1BC72-3A79-48F2-A0B4-3EE255512B98}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -515,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -523,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>250</v>
@@ -541,16 +589,16 @@
     </row>
     <row r="3" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="3">
         <v>2800</v>
@@ -565,16 +613,16 @@
     </row>
     <row r="4" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="3">
         <v>2700</v>
@@ -589,16 +637,16 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="3">
         <v>2900</v>
@@ -610,13 +658,110 @@
         <v>320</v>
       </c>
       <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
+      </c>
+      <c r="G6" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>150</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>210</v>
+      </c>
+      <c r="F9" s="3">
+        <v>160</v>
+      </c>
+      <c r="G9" s="3">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{4CAC3BCB-3DA2-46E8-A439-8C60B15CC3EE}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{F6EAFF16-6993-4788-87BB-85DC326922B7}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{37F8706B-E018-4F21-A642-EF5A6FAF089F}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{C725D046-3992-4ADF-BEA9-D038F818AB17}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{B398C237-E811-4872-92EE-2435CC6C3B39}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{3263D08E-F973-44AA-A59B-46E41353BB20}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="1" gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" blackAndWhite="1" draft="1" r:id="rId7"/>
 </worksheet>
 </file>